--- a/src/handprofil/download/measurement_template.xlsx
+++ b/src/handprofil/download/measurement_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielsteinmann/git_private/handprofil/src/handprofil/download/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielsteinmann/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C7F3EE-AD97-0744-8581-E02963D75007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D025E356-91EC-B244-BE49-16884A3B0E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32000" yWindow="500" windowWidth="32000" windowHeight="35500" xr2:uid="{8291EEF5-42C0-F349-9D05-6B17BB5725D8}"/>
   </bookViews>
@@ -599,26 +599,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,11 +638,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="zzm2_measurements" connectionId="1" xr16:uid="{958F1B56-BA06-694A-BE63-131797E2E488}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="zzm2_meta" connectionId="2" xr16:uid="{58937F56-F4E2-0B41-A8F7-BD6E8B07F90D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="zzm2_meta" connectionId="2" xr16:uid="{58937F56-F4E2-0B41-A8F7-BD6E8B07F90D}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="zzm2_measurements" connectionId="1" xr16:uid="{958F1B56-BA06-694A-BE63-131797E2E488}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -945,7 +945,7 @@
   <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -963,41 +963,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="19"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1126,16 +1126,16 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:9" s="7" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
@@ -1144,10 +1144,10 @@
       <c r="B15" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="16"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="4" t="s">
         <v>109</v>
       </c>
@@ -1168,10 +1168,10 @@
       <c r="B16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="19"/>
       <c r="E16" s="10" t="s">
         <v>0</v>
       </c>
@@ -1188,10 +1188,10 @@
       <c r="B17" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="17"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="10" t="s">
         <v>0</v>
       </c>
@@ -1208,10 +1208,10 @@
       <c r="B18" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="17"/>
+      <c r="D18" s="19"/>
       <c r="E18" s="10" t="s">
         <v>112</v>
       </c>
@@ -1228,10 +1228,10 @@
       <c r="B19" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="19"/>
       <c r="E19" s="10" t="s">
         <v>0</v>
       </c>
@@ -1248,10 +1248,10 @@
       <c r="B20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="17"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="10" t="s">
         <v>0</v>
       </c>
@@ -1266,10 +1266,10 @@
       <c r="B21" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="17"/>
+      <c r="D21" s="19"/>
       <c r="E21" s="10" t="s">
         <v>0</v>
       </c>
@@ -1284,10 +1284,10 @@
       <c r="B22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="17"/>
+      <c r="D22" s="19"/>
       <c r="E22" s="10" t="s">
         <v>112</v>
       </c>
@@ -1302,10 +1302,10 @@
       <c r="B23" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="17"/>
+      <c r="D23" s="19"/>
       <c r="E23" s="10" t="s">
         <v>0</v>
       </c>
@@ -1320,10 +1320,10 @@
       <c r="B24" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="17"/>
+      <c r="D24" s="19"/>
       <c r="E24" s="10" t="s">
         <v>0</v>
       </c>
@@ -1338,10 +1338,10 @@
       <c r="B25" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="17"/>
+      <c r="D25" s="19"/>
       <c r="E25" s="10" t="s">
         <v>0</v>
       </c>
@@ -1356,10 +1356,10 @@
       <c r="B26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D26" s="17"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="10" t="s">
         <v>0</v>
       </c>
@@ -1374,10 +1374,10 @@
       <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="17"/>
+      <c r="D27" s="19"/>
       <c r="E27" s="10" t="s">
         <v>0</v>
       </c>
@@ -1392,10 +1392,10 @@
       <c r="B28" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="17"/>
+      <c r="D28" s="19"/>
       <c r="E28" s="10" t="s">
         <v>0</v>
       </c>
@@ -1410,10 +1410,10 @@
       <c r="B29" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="17"/>
+      <c r="D29" s="19"/>
       <c r="E29" s="10" t="s">
         <v>0</v>
       </c>
@@ -1428,10 +1428,10 @@
       <c r="B30" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C30" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D30" s="17"/>
+      <c r="D30" s="19"/>
       <c r="E30" s="10" t="s">
         <v>0</v>
       </c>
@@ -1446,10 +1446,10 @@
       <c r="B31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="19"/>
       <c r="E31" s="10" t="s">
         <v>0</v>
       </c>
@@ -1464,10 +1464,10 @@
       <c r="B32" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D32" s="17"/>
+      <c r="D32" s="19"/>
       <c r="E32" s="10" t="s">
         <v>0</v>
       </c>
@@ -1482,10 +1482,10 @@
       <c r="B33" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D33" s="17"/>
+      <c r="D33" s="19"/>
       <c r="E33" s="10" t="s">
         <v>0</v>
       </c>
@@ -1500,10 +1500,10 @@
       <c r="B34" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="17" t="s">
+      <c r="C34" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D34" s="17"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="10" t="s">
         <v>0</v>
       </c>
@@ -1518,10 +1518,10 @@
       <c r="B35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C35" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="17"/>
+      <c r="D35" s="19"/>
       <c r="E35" s="10" t="s">
         <v>0</v>
       </c>
@@ -1536,10 +1536,10 @@
       <c r="B36" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="17" t="s">
+      <c r="C36" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D36" s="17"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="10" t="s">
         <v>0</v>
       </c>
@@ -1554,10 +1554,10 @@
       <c r="B37" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C37" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="17"/>
+      <c r="D37" s="19"/>
       <c r="E37" s="10" t="s">
         <v>0</v>
       </c>
@@ -1572,10 +1572,10 @@
       <c r="B38" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="17"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="10" t="s">
         <v>0</v>
       </c>
@@ -1590,10 +1590,10 @@
       <c r="B39" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="D39" s="17"/>
+      <c r="D39" s="19"/>
       <c r="E39" s="10" t="s">
         <v>0</v>
       </c>
@@ -1608,10 +1608,10 @@
       <c r="B40" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="17" t="s">
+      <c r="C40" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D40" s="17"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="10" t="s">
         <v>5</v>
       </c>
@@ -1626,10 +1626,10 @@
       <c r="B41" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="17" t="s">
+      <c r="C41" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="D41" s="17"/>
+      <c r="D41" s="19"/>
       <c r="E41" s="10" t="s">
         <v>5</v>
       </c>
@@ -1644,10 +1644,10 @@
       <c r="B42" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="17" t="s">
+      <c r="C42" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="17"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="10" t="s">
         <v>5</v>
       </c>
@@ -1662,10 +1662,10 @@
       <c r="B43" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D43" s="17"/>
+      <c r="D43" s="19"/>
       <c r="E43" s="10" t="s">
         <v>5</v>
       </c>
@@ -1680,10 +1680,10 @@
       <c r="B44" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="17"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="10" t="s">
         <v>5</v>
       </c>
@@ -1698,10 +1698,10 @@
       <c r="B45" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="D45" s="17"/>
+      <c r="D45" s="19"/>
       <c r="E45" s="10" t="s">
         <v>5</v>
       </c>
@@ -1716,10 +1716,10 @@
       <c r="B46" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C46" s="17" t="s">
+      <c r="C46" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D46" s="17"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="10" t="s">
         <v>5</v>
       </c>
@@ -1734,10 +1734,10 @@
       <c r="B47" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C47" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="17"/>
+      <c r="D47" s="19"/>
       <c r="E47" s="10" t="s">
         <v>5</v>
       </c>
@@ -1752,10 +1752,10 @@
       <c r="B48" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="17" t="s">
+      <c r="C48" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="17"/>
+      <c r="D48" s="19"/>
       <c r="E48" s="10" t="s">
         <v>5</v>
       </c>
@@ -1770,10 +1770,10 @@
       <c r="B49" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C49" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D49" s="17"/>
+      <c r="D49" s="19"/>
       <c r="E49" s="10" t="s">
         <v>5</v>
       </c>
@@ -1788,10 +1788,10 @@
       <c r="B50" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="17" t="s">
+      <c r="C50" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="D50" s="17"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="10" t="s">
         <v>5</v>
       </c>
@@ -1806,10 +1806,10 @@
       <c r="B51" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C51" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="D51" s="17"/>
+      <c r="D51" s="19"/>
       <c r="E51" s="10" t="s">
         <v>5</v>
       </c>
@@ -1824,10 +1824,10 @@
       <c r="B52" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C52" s="17" t="s">
+      <c r="C52" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="17"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="10" t="s">
         <v>5</v>
       </c>
@@ -1842,10 +1842,10 @@
       <c r="B53" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="17" t="s">
+      <c r="C53" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D53" s="17"/>
+      <c r="D53" s="19"/>
       <c r="E53" s="10" t="s">
         <v>5</v>
       </c>
@@ -1860,10 +1860,10 @@
       <c r="B54" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D54" s="17"/>
+      <c r="D54" s="19"/>
       <c r="E54" s="10" t="s">
         <v>5</v>
       </c>
@@ -1878,10 +1878,10 @@
       <c r="B55" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D55" s="17"/>
+      <c r="D55" s="19"/>
       <c r="E55" s="10" t="s">
         <v>5</v>
       </c>
@@ -1896,10 +1896,10 @@
       <c r="B56" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="17" t="s">
+      <c r="C56" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="D56" s="17"/>
+      <c r="D56" s="19"/>
       <c r="E56" s="10" t="s">
         <v>5</v>
       </c>
@@ -1914,10 +1914,10 @@
       <c r="B57" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C57" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D57" s="17"/>
+      <c r="D57" s="19"/>
       <c r="E57" s="10" t="s">
         <v>5</v>
       </c>
@@ -1932,10 +1932,10 @@
       <c r="B58" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D58" s="17"/>
+      <c r="D58" s="19"/>
       <c r="E58" s="10" t="s">
         <v>5</v>
       </c>
@@ -1950,10 +1950,10 @@
       <c r="B59" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C59" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D59" s="17"/>
+      <c r="D59" s="19"/>
       <c r="E59" s="10" t="s">
         <v>5</v>
       </c>
@@ -1968,10 +1968,10 @@
       <c r="B60" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="17" t="s">
+      <c r="C60" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="17"/>
+      <c r="D60" s="19"/>
       <c r="E60" s="10" t="s">
         <v>5</v>
       </c>
@@ -1986,10 +1986,10 @@
       <c r="B61" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D61" s="17"/>
+      <c r="D61" s="19"/>
       <c r="E61" s="10" t="s">
         <v>5</v>
       </c>
@@ -2004,10 +2004,10 @@
       <c r="B62" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D62" s="17"/>
+      <c r="D62" s="19"/>
       <c r="E62" s="10" t="s">
         <v>5</v>
       </c>
@@ -2022,10 +2022,10 @@
       <c r="B63" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="D63" s="17"/>
+      <c r="D63" s="19"/>
       <c r="E63" s="10" t="s">
         <v>5</v>
       </c>
@@ -2040,10 +2040,10 @@
       <c r="B64" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="D64" s="17"/>
+      <c r="D64" s="19"/>
       <c r="E64" s="10" t="s">
         <v>5</v>
       </c>
@@ -2058,10 +2058,10 @@
       <c r="B65" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C65" s="17" t="s">
+      <c r="C65" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="17"/>
+      <c r="D65" s="19"/>
       <c r="E65" s="10" t="s">
         <v>5</v>
       </c>
@@ -2076,10 +2076,10 @@
       <c r="B66" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C66" s="17" t="s">
+      <c r="C66" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="17"/>
+      <c r="D66" s="19"/>
       <c r="E66" s="10" t="s">
         <v>5</v>
       </c>
@@ -2094,10 +2094,10 @@
       <c r="B67" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C67" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="17"/>
+      <c r="D67" s="19"/>
       <c r="E67" s="10" t="s">
         <v>5</v>
       </c>
@@ -2112,10 +2112,10 @@
       <c r="B68" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D68" s="17"/>
+      <c r="D68" s="19"/>
       <c r="E68" s="10" t="s">
         <v>5</v>
       </c>
@@ -2130,10 +2130,10 @@
       <c r="B69" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C69" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="D69" s="17"/>
+      <c r="D69" s="19"/>
       <c r="E69" s="10" t="s">
         <v>5</v>
       </c>
@@ -2148,10 +2148,10 @@
       <c r="B70" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="17" t="s">
+      <c r="C70" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D70" s="17"/>
+      <c r="D70" s="19"/>
       <c r="E70" s="10" t="s">
         <v>5</v>
       </c>
@@ -2166,10 +2166,10 @@
       <c r="B71" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C71" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D71" s="17"/>
+      <c r="D71" s="19"/>
       <c r="E71" s="10" t="s">
         <v>5</v>
       </c>
@@ -2184,10 +2184,10 @@
       <c r="B72" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C72" s="17" t="s">
+      <c r="C72" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="D72" s="17"/>
+      <c r="D72" s="19"/>
       <c r="E72" s="10" t="s">
         <v>5</v>
       </c>
@@ -2202,10 +2202,10 @@
       <c r="B73" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C73" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="D73" s="17"/>
+      <c r="D73" s="19"/>
       <c r="E73" s="10" t="s">
         <v>5</v>
       </c>
@@ -2220,10 +2220,10 @@
       <c r="B74" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C74" s="17" t="s">
+      <c r="C74" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D74" s="17"/>
+      <c r="D74" s="19"/>
       <c r="E74" s="10" t="s">
         <v>5</v>
       </c>
@@ -2238,10 +2238,10 @@
       <c r="B75" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="D75" s="17"/>
+      <c r="D75" s="19"/>
       <c r="E75" s="10" t="s">
         <v>5</v>
       </c>
@@ -2256,10 +2256,10 @@
       <c r="B76" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D76" s="17"/>
+      <c r="D76" s="19"/>
       <c r="E76" s="10" t="s">
         <v>5</v>
       </c>
@@ -2274,10 +2274,10 @@
       <c r="B77" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C77" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="D77" s="17"/>
+      <c r="D77" s="19"/>
       <c r="E77" s="10" t="s">
         <v>5</v>
       </c>
@@ -2292,10 +2292,10 @@
       <c r="B78" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C78" s="17" t="s">
+      <c r="C78" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="D78" s="17"/>
+      <c r="D78" s="19"/>
       <c r="E78" s="10" t="s">
         <v>5</v>
       </c>
@@ -2310,10 +2310,10 @@
       <c r="B79" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C79" s="17" t="s">
+      <c r="C79" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="D79" s="17"/>
+      <c r="D79" s="19"/>
       <c r="E79" s="10" t="s">
         <v>5</v>
       </c>
@@ -2328,10 +2328,10 @@
       <c r="B80" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C80" s="17" t="s">
+      <c r="C80" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="D80" s="17"/>
+      <c r="D80" s="19"/>
       <c r="E80" s="10" t="s">
         <v>5</v>
       </c>
@@ -2346,10 +2346,10 @@
       <c r="B81" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="17" t="s">
+      <c r="C81" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D81" s="17"/>
+      <c r="D81" s="19"/>
       <c r="E81" s="10" t="s">
         <v>5</v>
       </c>
@@ -2364,10 +2364,10 @@
       <c r="B82" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C82" s="17" t="s">
+      <c r="C82" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D82" s="17"/>
+      <c r="D82" s="19"/>
       <c r="E82" s="10" t="s">
         <v>5</v>
       </c>
@@ -2382,10 +2382,10 @@
       <c r="B83" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C83" s="17" t="s">
+      <c r="C83" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D83" s="17"/>
+      <c r="D83" s="19"/>
       <c r="E83" s="10" t="s">
         <v>5</v>
       </c>
@@ -2400,10 +2400,10 @@
       <c r="B84" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C84" s="17" t="s">
+      <c r="C84" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="17"/>
+      <c r="D84" s="19"/>
       <c r="E84" s="10" t="s">
         <v>5</v>
       </c>
@@ -2418,10 +2418,10 @@
       <c r="B85" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C85" s="17" t="s">
+      <c r="C85" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="17"/>
+      <c r="D85" s="19"/>
       <c r="E85" s="10" t="s">
         <v>5</v>
       </c>
@@ -2436,10 +2436,10 @@
       <c r="B86" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C86" s="17" t="s">
+      <c r="C86" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="17"/>
+      <c r="D86" s="19"/>
       <c r="E86" s="10" t="s">
         <v>5</v>
       </c>
@@ -2454,10 +2454,10 @@
       <c r="B87" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C87" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="17"/>
+      <c r="D87" s="19"/>
       <c r="E87" s="10" t="s">
         <v>5</v>
       </c>
@@ -2472,10 +2472,10 @@
       <c r="B88" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C88" s="17" t="s">
+      <c r="C88" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D88" s="17"/>
+      <c r="D88" s="19"/>
       <c r="E88" s="10" t="s">
         <v>5</v>
       </c>
@@ -2490,10 +2490,10 @@
       <c r="B89" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C89" s="17" t="s">
+      <c r="C89" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="17"/>
+      <c r="D89" s="19"/>
       <c r="E89" s="10" t="s">
         <v>5</v>
       </c>
@@ -2508,10 +2508,10 @@
       <c r="B90" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C90" s="17" t="s">
+      <c r="C90" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D90" s="17"/>
+      <c r="D90" s="19"/>
       <c r="E90" s="10" t="s">
         <v>5</v>
       </c>
@@ -2526,10 +2526,10 @@
       <c r="B91" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="17" t="s">
+      <c r="C91" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D91" s="17"/>
+      <c r="D91" s="19"/>
       <c r="E91" s="10" t="s">
         <v>5</v>
       </c>
@@ -2544,10 +2544,10 @@
       <c r="B92" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="C92" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="17"/>
+      <c r="D92" s="19"/>
       <c r="E92" s="10" t="s">
         <v>5</v>
       </c>
@@ -2562,10 +2562,10 @@
       <c r="B93" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="C93" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D93" s="17"/>
+      <c r="D93" s="19"/>
       <c r="E93" s="10" t="s">
         <v>5</v>
       </c>
@@ -2580,10 +2580,10 @@
       <c r="B94" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C94" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D94" s="17"/>
+      <c r="D94" s="19"/>
       <c r="E94" s="10" t="s">
         <v>5</v>
       </c>
@@ -2598,10 +2598,10 @@
       <c r="B95" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C95" s="17" t="s">
+      <c r="C95" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D95" s="17"/>
+      <c r="D95" s="19"/>
       <c r="E95" s="10" t="s">
         <v>5</v>
       </c>
@@ -2616,10 +2616,10 @@
       <c r="B96" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C96" s="17" t="s">
+      <c r="C96" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="17"/>
+      <c r="D96" s="19"/>
       <c r="E96" s="10" t="s">
         <v>5</v>
       </c>
@@ -2634,10 +2634,10 @@
       <c r="B97" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C97" s="17" t="s">
+      <c r="C97" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D97" s="17"/>
+      <c r="D97" s="19"/>
       <c r="E97" s="10" t="s">
         <v>5</v>
       </c>
@@ -2652,10 +2652,10 @@
       <c r="B98" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C98" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D98" s="17"/>
+      <c r="D98" s="19"/>
       <c r="E98" s="10" t="s">
         <v>5</v>
       </c>
@@ -2670,10 +2670,10 @@
       <c r="B99" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D99" s="17"/>
+      <c r="D99" s="19"/>
       <c r="E99" s="10" t="s">
         <v>5</v>
       </c>
@@ -2688,10 +2688,10 @@
       <c r="B100" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C100" s="17" t="s">
+      <c r="C100" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D100" s="17"/>
+      <c r="D100" s="19"/>
       <c r="E100" s="10" t="s">
         <v>5</v>
       </c>
@@ -2706,10 +2706,10 @@
       <c r="B101" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C101" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D101" s="17"/>
+      <c r="D101" s="19"/>
       <c r="E101" s="10" t="s">
         <v>5</v>
       </c>
@@ -2724,10 +2724,10 @@
       <c r="B102" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C102" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D102" s="17"/>
+      <c r="D102" s="19"/>
       <c r="E102" s="10" t="s">
         <v>5</v>
       </c>
@@ -2742,10 +2742,10 @@
       <c r="B103" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="17"/>
+      <c r="D103" s="19"/>
       <c r="E103" s="10" t="s">
         <v>5</v>
       </c>
@@ -2760,10 +2760,10 @@
       <c r="B104" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C104" s="17" t="s">
+      <c r="C104" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D104" s="17"/>
+      <c r="D104" s="19"/>
       <c r="E104" s="10" t="s">
         <v>5</v>
       </c>
@@ -2778,10 +2778,10 @@
       <c r="B105" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C105" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D105" s="17"/>
+      <c r="D105" s="19"/>
       <c r="E105" s="10" t="s">
         <v>5</v>
       </c>
@@ -2796,10 +2796,10 @@
       <c r="B106" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C106" s="17" t="s">
+      <c r="C106" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D106" s="17"/>
+      <c r="D106" s="19"/>
       <c r="E106" s="10" t="s">
         <v>5</v>
       </c>
@@ -2814,10 +2814,10 @@
       <c r="B107" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D107" s="17"/>
+      <c r="D107" s="19"/>
       <c r="E107" s="10" t="s">
         <v>5</v>
       </c>
@@ -2832,10 +2832,10 @@
       <c r="B108" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C108" s="17" t="s">
+      <c r="C108" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D108" s="17"/>
+      <c r="D108" s="19"/>
       <c r="E108" s="10" t="s">
         <v>5</v>
       </c>
@@ -2850,10 +2850,10 @@
       <c r="B109" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C109" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D109" s="17"/>
+      <c r="D109" s="19"/>
       <c r="E109" s="10" t="s">
         <v>5</v>
       </c>
@@ -2868,10 +2868,10 @@
       <c r="B110" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C110" s="17" t="s">
+      <c r="C110" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D110" s="17"/>
+      <c r="D110" s="19"/>
       <c r="E110" s="10" t="s">
         <v>5</v>
       </c>
@@ -2886,10 +2886,10 @@
       <c r="B111" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C111" s="17" t="s">
+      <c r="C111" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D111" s="17"/>
+      <c r="D111" s="19"/>
       <c r="E111" s="10" t="s">
         <v>5</v>
       </c>
@@ -2904,10 +2904,10 @@
       <c r="B112" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C112" s="17" t="s">
+      <c r="C112" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D112" s="17"/>
+      <c r="D112" s="19"/>
       <c r="E112" s="10" t="s">
         <v>5</v>
       </c>
@@ -2922,10 +2922,10 @@
       <c r="B113" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C113" s="17" t="s">
+      <c r="C113" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D113" s="17"/>
+      <c r="D113" s="19"/>
       <c r="E113" s="10" t="s">
         <v>5</v>
       </c>
@@ -2940,10 +2940,10 @@
       <c r="B114" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C114" s="17" t="s">
+      <c r="C114" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D114" s="17"/>
+      <c r="D114" s="19"/>
       <c r="E114" s="10" t="s">
         <v>5</v>
       </c>
@@ -2958,10 +2958,10 @@
       <c r="B115" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C115" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D115" s="17"/>
+      <c r="D115" s="19"/>
       <c r="E115" s="10" t="s">
         <v>5</v>
       </c>
@@ -2976,10 +2976,10 @@
       <c r="B116" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C116" s="17" t="s">
+      <c r="C116" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D116" s="17"/>
+      <c r="D116" s="19"/>
       <c r="E116" s="10" t="s">
         <v>5</v>
       </c>
@@ -2994,10 +2994,10 @@
       <c r="B117" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C117" s="17" t="s">
+      <c r="C117" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D117" s="17"/>
+      <c r="D117" s="19"/>
       <c r="E117" s="10" t="s">
         <v>5</v>
       </c>
@@ -3012,10 +3012,10 @@
       <c r="B118" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C118" s="17" t="s">
+      <c r="C118" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="D118" s="17"/>
+      <c r="D118" s="19"/>
       <c r="E118" s="10" t="s">
         <v>5</v>
       </c>
@@ -3024,7 +3024,91 @@
       <c r="H118" s="8"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="107">
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C91:D91"/>
     <mergeCell ref="C116:D116"/>
     <mergeCell ref="C117:D117"/>
     <mergeCell ref="C118:D118"/>
@@ -3049,89 +3133,6 @@
     <mergeCell ref="C101:D101"/>
     <mergeCell ref="C102:D102"/>
     <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
